--- a/merkle_tree_construction/logDirectoryOutput.xlsx
+++ b/merkle_tree_construction/logDirectoryOutput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Simeon\Documents\GitHub\bitcoin-version-compare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simeo\Documents\GitHub\bitcoin-version-compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2708DA-6478-40EA-9523-F9B4555191B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23193BC-2141-4683-95BA-5E40C88D243C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="135" windowWidth="18090" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="1890" windowWidth="21900" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="logDirectoryOutput" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="130">
   <si>
     <t>Num all files</t>
   </si>
@@ -298,6 +298,120 @@
   <si>
     <t>Comparison across code files
 (cpp, py, c, h, sh, sol, go, c, js, java)</t>
+  </si>
+  <si>
+    <t>bitcoin-22.1</t>
+  </si>
+  <si>
+    <t>.cpp (516), .h (450), .py (234), .md (181), .ts (97), .png (93), .json (92), .cc (89), .sh (73),  (65), .mk (38), .patch (28), .hex (28), .in (23), .svg (21), .c (19), .ui (19), .vcxproj (17), .m4 (16), .yml (13), .include (13), .txt (8), .1 (6), .rc (6), .sage (6), .am (5), .xpm (5), .ac (3), .bash-completion (3), .bash (3), .conf (3), .ico (3), .mm (3), .targets (2), .pro (2), .bmp (2), .raw (2), .capnp (2), .html (2), .qrc (2), .yapf (1), .sln (1), .supp (1), .scm (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .plist (1), .cfg (1), .cert (1), .guess (1), .sub (1), .cmake (1), .xml (1), .gradle (1), .properties (1), .java (1), .xlf (1), .ttf (1), .icns (1), .dockerfile (1), .s (1), .csv (1)</t>
+  </si>
+  <si>
+    <t>.cpp (516), .h (450), .py (234), .sh (73), .c (19), .java (1)</t>
+  </si>
+  <si>
+    <t>bitcoin-23.0</t>
+  </si>
+  <si>
+    <t>.cpp (559), .h (482), .py (257), .md (195), .png (98), .json (94), .ts (94), .cc (89), .sh (74),  (63), .mk (51), .patch (30), .hex (29), .in (24), .svg (20), .ui (19), .m4 (18), .vcxproj (17), .c (17), .include (15), .txt (9), .sage (9), .yml (7), .am (6), .1 (6), .rc (6), .xpm (5), .ac (4), .bash-completion (3), .bash (3), .conf (3), .bt (3), .ico (3), .mm (3), .targets (2), .pro (2), .bmp (2), .raw (2), .capnp (2), .html (2), .dockerfile (2), .qrc (2), .xml (2), .yapf (1), .sln (1), .supp (1), .scm (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .tiff (1), .cert (1), .guess (1), .sub (1), .cmake (1), .gradle (1), .properties (1), .java (1), .xlf (1), .ttf (1), .icns (1), .s (1), .csv (1)</t>
+  </si>
+  <si>
+    <t>.cpp (559), .h (482), .py (257), .sh (74), .c (17), .java (1)</t>
+  </si>
+  <si>
+    <t>bitcoin-23.1</t>
+  </si>
+  <si>
+    <t>.cpp (561), .h (482), .py (258), .md (196), .ts (99), .png (98), .json (94), .cc (89), .sh (74),  (67), .mk (51), .patch (29), .hex (29), .in (24), .svg (20), .m4 (19), .ui (19), .vcxproj (17), .c (17), .include (15), .txt (9), .sage (9), .yml (8), .am (6), .1 (6), .rc (6), .xpm (5), .ac (4), .bash-completion (3), .bash (3), .conf (3), .bt (3), .ico (3), .mm (3), .targets (2), .pro (2), .bmp (2), .raw (2), .capnp (2), .html (2), .dockerfile (2), .qrc (2), .xml (2), .yapf (1), .sln (1), .supp (1), .scm (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .plist (1), .cfg (1), .tiff (1), .cert (1), .guess (1), .sub (1), .cmake (1), .gradle (1), .properties (1), .java (1), .xlf (1), .ttf (1), .icns (1), .s (1), .csv (1)</t>
+  </si>
+  <si>
+    <t>.cpp (561), .h (482), .py (258), .sh (74), .c (17), .java (1)</t>
+  </si>
+  <si>
+    <t>bitcoin-24.0.1</t>
+  </si>
+  <si>
+    <t>.cpp (599), .h (507), .py (297), .md (198), .png (98), .ts (98), .json (94), .cc (89),  (66), .sh (50), .mk (50), .patch (35), .hex (29), .in (23), .c (22), .svg (20), .ui (19), .m4 (18), .vcxproj (16), .include (15), .sage (9), .txt (8), .yml (7), .1 (6), .rc (6), .am (5), .xpm (5), .ac (3), .bash-completion (3), .bash (3), .conf (3), .bt (3), .ico (3), .mm (3), .targets (2), .pro (2), .bmp (2), .raw (2), .capnp (2), .html (2), .dockerfile (2), .qrc (2), .xml (2), .yapf (1), .sln (1), .bat (1), .supp (1), .imp (1), .scm (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .plist (1), .cfg (1), .tiff (1), .cert (1), .guess (1), .sub (1), .cmake (1), .gradle (1), .properties (1), .java (1), .xlf (1), .ttf (1), .icns (1), .s (1), .csv (1)</t>
+  </si>
+  <si>
+    <t>.cpp (599), .h (507), .py (297), .sh (50), .c (22), .java (1)</t>
+  </si>
+  <si>
+    <t>Code file extenension histogram</t>
+  </si>
+  <si>
+    <t>.h (233), .cpp (179), .py (41), .sh (16), .c (7), .java (1)</t>
+  </si>
+  <si>
+    <t>.h (233), .cpp (180), .py (43), .sh (16), .c (7), .java (1)</t>
+  </si>
+  <si>
+    <t>.h (233), .cpp (180), .py (45), .sh (16), .c (7), .java (1)</t>
+  </si>
+  <si>
+    <t>.h (249), .cpp (189), .py (61), .sh (16), .c (8), .java (1)</t>
+  </si>
+  <si>
+    <t>.h (249), .cpp (189), .py (63), .sh (16), .c (8), .java (1)</t>
+  </si>
+  <si>
+    <t>.h (267), .cpp (203), .py (85), .sh (15), .c (13), .java (1)</t>
+  </si>
+  <si>
+    <t>.h (268), .cpp (205), .py (89), .sh (15), .c (13), .java (1)</t>
+  </si>
+  <si>
+    <t>.h (276), .cpp (214), .py (101), .c (16), .sh (14), .java (1)</t>
+  </si>
+  <si>
+    <t>.h (276), .cpp (214), .py (106), .c (16), .sh (14), .java (1)</t>
+  </si>
+  <si>
+    <t>.h (274), .cpp (213), .py (106), .c (18), .sh (14), .java (4)</t>
+  </si>
+  <si>
+    <t>.h (287), .cpp (232), .py (112), .c (18), .sh (17), .java (4)</t>
+  </si>
+  <si>
+    <t>.h (287), .cpp (233), .py (112), .c (18), .sh (17), .java (4)</t>
+  </si>
+  <si>
+    <t>.h (297), .cpp (243), .py (120), .sh (19), .c (17), .java (4)</t>
+  </si>
+  <si>
+    <t>.h (296), .cpp (243), .py (123), .sh (19), .c (17), .java (4)</t>
+  </si>
+  <si>
+    <t>.h (302), .cpp (256), .py (133), .sh (23), .c (17), .java (4)</t>
+  </si>
+  <si>
+    <t>.h (302), .cpp (257), .py (134), .sh (23), .c (17), .java (4)</t>
+  </si>
+  <si>
+    <t>.h (317), .cpp (281), .py (148), .sh (32), .c (17), .java (4)</t>
+  </si>
+  <si>
+    <t>.h (317), .cpp (281), .py (150), .sh (32), .c (17), .java (4)</t>
+  </si>
+  <si>
+    <t>.h (339), .cpp (309), .py (165), .sh (45), .c (17), .java (4)</t>
+  </si>
+  <si>
+    <t>.h (339), .cpp (310), .py (166), .sh (45), .c (17), .java (4)</t>
+  </si>
+  <si>
+    <t>.h (365), .cpp (345), .py (174), .sh (64), .c (18), .java (4)</t>
+  </si>
+  <si>
+    <t>.h (390), .cpp (355), .py (190), .sh (70), .c (19), .java (4)</t>
+  </si>
+  <si>
+    <t>.cpp (466), .h (417), .py (209), .sh (75), .c (19)</t>
+  </si>
+  <si>
+    <t>.cpp (467), .h (418), .py (210), .sh (75), .c (19)</t>
+  </si>
+  <si>
+    <t>.cpp (515), .h (450), .py (233), .sh (73), .c (19), .java (1)</t>
   </si>
 </sst>
 </file>
@@ -1205,9 +1319,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U43"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:V1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1225,9 +1341,10 @@
     <col min="19" max="19" width="13.7109375" style="3" customWidth="1"/>
     <col min="20" max="20" width="1.7109375" style="1" customWidth="1"/>
     <col min="21" max="21" width="255.5703125" customWidth="1"/>
+    <col min="22" max="22" width="48.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -1291,8 +1408,11 @@
       <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1356,8 +1476,11 @@
       <c r="U2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1421,8 +1544,11 @@
       <c r="U3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1486,8 +1612,11 @@
       <c r="U4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1551,8 +1680,11 @@
       <c r="U5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1616,8 +1748,11 @@
       <c r="U6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1681,8 +1816,11 @@
       <c r="U7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1746,8 +1884,11 @@
       <c r="U8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1811,8 +1952,11 @@
       <c r="U9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1876,8 +2020,11 @@
       <c r="U10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1941,8 +2088,11 @@
       <c r="U11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -2006,8 +2156,11 @@
       <c r="U12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -2071,8 +2224,11 @@
       <c r="U13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -2136,8 +2292,11 @@
       <c r="U14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
@@ -2201,8 +2360,11 @@
       <c r="U15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -2266,8 +2428,11 @@
       <c r="U16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -2331,8 +2496,11 @@
       <c r="U17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -2396,8 +2564,11 @@
       <c r="U18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
@@ -2461,8 +2632,11 @@
       <c r="U19" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -2526,8 +2700,11 @@
       <c r="U20" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
@@ -2591,8 +2768,11 @@
       <c r="U21" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -2656,8 +2836,11 @@
       <c r="U22" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
@@ -2721,8 +2904,11 @@
       <c r="U23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
@@ -2786,8 +2972,11 @@
       <c r="U24" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
@@ -2851,8 +3040,11 @@
       <c r="U25" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>57</v>
       </c>
@@ -2916,8 +3108,11 @@
       <c r="U26" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -2981,8 +3176,11 @@
       <c r="U27" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -3046,8 +3244,11 @@
       <c r="U28" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>62</v>
       </c>
@@ -3111,8 +3312,11 @@
       <c r="U29" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>64</v>
       </c>
@@ -3176,8 +3380,11 @@
       <c r="U30" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
@@ -3241,8 +3448,11 @@
       <c r="U31" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>68</v>
       </c>
@@ -3306,8 +3516,11 @@
       <c r="U32" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>70</v>
       </c>
@@ -3371,8 +3584,11 @@
       <c r="U33" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>72</v>
       </c>
@@ -3436,8 +3652,11 @@
       <c r="U34" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>73</v>
       </c>
@@ -3501,8 +3720,11 @@
       <c r="U35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>75</v>
       </c>
@@ -3566,8 +3788,11 @@
       <c r="U36" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>77</v>
       </c>
@@ -3631,123 +3856,398 @@
       <c r="U37" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="8">
+        <v>2217</v>
+      </c>
+      <c r="C38" s="5">
+        <v>29216471</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1526</v>
+      </c>
+      <c r="E38" s="5">
+        <v>13393499</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="7">
+        <v>29453</v>
+      </c>
+      <c r="H38" s="7">
+        <v>9957</v>
+      </c>
+      <c r="I38" s="8">
+        <v>137</v>
+      </c>
+      <c r="J38" s="4">
+        <v>6.1795218764095598E-2</v>
+      </c>
+      <c r="K38" s="5">
+        <v>9166031</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0.31372820488826297</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="7">
+        <v>445</v>
+      </c>
+      <c r="O38" s="7">
+        <v>133</v>
+      </c>
+      <c r="P38" s="8">
+        <v>35</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>2.29357798165137E-2</v>
+      </c>
+      <c r="R38" s="5">
+        <v>989575</v>
+      </c>
+      <c r="S38" s="4">
+        <v>7.3884725716558394E-2</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U38" t="s">
+        <v>93</v>
+      </c>
+      <c r="V38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="8">
+        <v>2355</v>
+      </c>
+      <c r="C39" s="5">
+        <v>35666095</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1629</v>
+      </c>
+      <c r="E39" s="5">
+        <v>18844898</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="7">
+        <v>166281</v>
+      </c>
+      <c r="H39" s="7">
+        <v>114755</v>
+      </c>
+      <c r="I39" s="8">
+        <v>1429</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0.60679405520169805</v>
+      </c>
+      <c r="K39" s="5">
+        <v>28110854</v>
+      </c>
+      <c r="L39" s="4">
+        <v>0.78816741782356603</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N39" s="7">
+        <v>74606</v>
+      </c>
+      <c r="O39" s="7">
+        <v>19628</v>
+      </c>
+      <c r="P39" s="8">
+        <v>1048</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>0.64333947206875297</v>
+      </c>
+      <c r="R39" s="5">
+        <v>16178915</v>
+      </c>
+      <c r="S39" s="4">
+        <v>0.85853025046885301</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U39" t="s">
+        <v>96</v>
+      </c>
+      <c r="V39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="8">
+        <v>2370</v>
+      </c>
+      <c r="C40" s="5">
+        <v>36250861</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1633</v>
+      </c>
+      <c r="E40" s="5">
+        <v>18519498</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="7">
+        <v>26592</v>
+      </c>
+      <c r="H40" s="7">
+        <v>1903</v>
+      </c>
+      <c r="I40" s="8">
+        <v>109</v>
+      </c>
+      <c r="J40" s="4">
+        <v>4.5991561181434597E-2</v>
+      </c>
+      <c r="K40" s="5">
+        <v>8673361</v>
+      </c>
+      <c r="L40" s="4">
+        <v>0.239259448210071</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N40" s="7">
+        <v>1077</v>
+      </c>
+      <c r="O40" s="7">
+        <v>110</v>
+      </c>
+      <c r="P40" s="8">
+        <v>18</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>1.1022657685241801E-2</v>
+      </c>
+      <c r="R40" s="5">
+        <v>509963</v>
+      </c>
+      <c r="S40" s="4">
+        <v>2.7536545537033399E-2</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U40" t="s">
+        <v>99</v>
+      </c>
+      <c r="V40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="8">
+        <v>2453</v>
+      </c>
+      <c r="C41" s="5">
+        <v>37204360</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1716</v>
+      </c>
+      <c r="E41" s="5">
+        <v>19517166</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="7">
+        <v>57126</v>
+      </c>
+      <c r="H41" s="7">
+        <v>37930</v>
+      </c>
+      <c r="I41" s="8">
+        <v>1128</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0.45984508764777798</v>
+      </c>
+      <c r="K41" s="5">
+        <v>26704283</v>
+      </c>
+      <c r="L41" s="4">
+        <v>0.717772943816262</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="7">
+        <v>41158</v>
+      </c>
+      <c r="O41" s="7">
+        <v>16694</v>
+      </c>
+      <c r="P41" s="8">
+        <v>807</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>0.47027972027971998</v>
+      </c>
+      <c r="R41" s="5">
+        <v>14516049</v>
+      </c>
+      <c r="S41" s="4">
+        <v>0.74375803331282797</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U41" t="s">
+        <v>102</v>
+      </c>
+      <c r="V41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B43" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="G39" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="N39" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
-      <c r="G43" s="11"/>
+      <c r="G43" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
-      <c r="N43" s="11"/>
+      <c r="N43" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
       <c r="S43" s="11"/>
     </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="G39:L43"/>
-    <mergeCell ref="N39:S43"/>
-    <mergeCell ref="B39:E43"/>
+    <mergeCell ref="G43:L47"/>
+    <mergeCell ref="N43:S47"/>
+    <mergeCell ref="B43:E47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3755,312 +4255,468 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F98823F-F407-46D8-AA59-6586EBBE7321}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="255.5703125" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B19" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B20" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B22" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B24" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B25" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B28" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B30" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B32" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B33" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B34" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B36" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B37" t="s">
         <v>78</v>
+      </c>
+      <c r="C37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/merkle_tree_construction/logDirectoryOutput.xlsx
+++ b/merkle_tree_construction/logDirectoryOutput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simeo\Documents\GitHub\bitcoin-version-compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23193BC-2141-4683-95BA-5E40C88D243C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B129834C-EA63-40EA-B4E3-A3391DC0BE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1890" windowWidth="21900" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8985" yWindow="2220" windowWidth="21900" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="logDirectoryOutput" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="129">
   <si>
     <t>Num all files</t>
   </si>
@@ -71,15 +71,9 @@
     <t>bitcoin-0.10.0</t>
   </si>
   <si>
-    <t>.h (233), .cpp (179), .png (126), .md (88), .ts (71), .cc (70),  (46), .py (41), .mk (39), .m4 (17), .sh (16), .ui (16), .pgp (11), .bmp (11), .json (11), .svg (9), .txt (8), .hex (8), .patch (7), .in (7), .c (7), .yml (6), .ico (6), .xpm (5), .conf (4), .rc (4), .am (3), .include (3), .html (3), .ac (2), .bash-completion (2), .install (2), .lintian-overrides (2), .1 (2), .pem (2), .qrc (2), .mm (2), .pro (1), .desktop (1), .protocol (1), .examples (1), .manpages (1), .5 (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .psd (1), .plist (1), .guess (1), .sub (1), .packages (1), .usage (1), .pri (1), .xcf (1), .css (1), .proto (1), .icns (1), .asm (1), .java (1), .raw (1)</t>
-  </si>
-  <si>
     <t>bitcoin-0.10.1</t>
   </si>
   <si>
-    <t>.h (233), .cpp (180), .png (126), .md (89), .ts (71), .cc (70),  (46), .py (43), .mk (39), .m4 (17), .sh (16), .ui (16), .pgp (11), .bmp (11), .json (11), .svg (9), .txt (8), .hex (8), .patch (7), .in (7), .c (7), .yml (6), .ico (6), .xpm (5), .conf (4), .rc (4), .am (3), .include (3), .html (3), .ac (2), .bash-completion (2), .install (2), .lintian-overrides (2), .1 (2), .pem (2), .qrc (2), .mm (2), .pro (1), .desktop (1), .protocol (1), .examples (1), .manpages (1), .5 (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .psd (1), .plist (1), .guess (1), .sub (1), .packages (1), .usage (1), .pri (1), .xcf (1), .css (1), .proto (1), .icns (1), .asm (1), .java (1), .raw (1)</t>
-  </si>
-  <si>
     <t>bitcoin-0.10.2</t>
   </si>
   <si>
@@ -89,105 +83,57 @@
     <t>bitcoin-0.10.4</t>
   </si>
   <si>
-    <t>.h (233), .cpp (180), .png (126), .md (93), .ts (71), .cc (70),  (46), .py (45), .mk (39), .m4 (17), .sh (16), .ui (16), .pgp (11), .bmp (11), .json (11), .svg (9), .txt (8), .hex (8), .patch (7), .in (7), .c (7), .yml (6), .ico (6), .xpm (5), .conf (4), .rc (4), .am (3), .install (3), .include (3), .html (3), .ac (2), .bash-completion (2), .lintian-overrides (2), .1 (2), .pem (2), .qrc (2), .mm (2), .pro (1), .desktop (1), .protocol (1), .examples (1), .manpages (1), .5 (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .psd (1), .plist (1), .guess (1), .sub (1), .packages (1), .usage (1), .pri (1), .xcf (1), .css (1), .proto (1), .icns (1), .asm (1), .java (1), .raw (1)</t>
-  </si>
-  <si>
     <t>bitcoin-0.11.1</t>
   </si>
   <si>
-    <t>.h (249), .cpp (189), .png (123), .md (96), .ts (71), .cc (70), .py (61),  (46), .mk (37), .sh (16), .m4 (16), .ui (16), .svg (15), .pgp (13), .bmp (11), .json (9), .in (8), .txt (8), .patch (8), .c (8), .hex (8), .yml (7), .rc (5), .ico (5), .xpm (5), .conf (4), .am (3), .1 (3), .include (3), .html (3), .ac (2), .bash-completion (2), .install (2), .lintian-overrides (2), .pem (2), .qrc (2), .mm (2), .pro (1), .desktop (1), .protocol (1), .examples (1), .manpages (1), .5 (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .psd (1), .tiff (1), .plist (1), .strings (1), .guess (1), .sub (1), .pri (1), .xcf (1), .css (1), .proto (1), .icns (1), .java (1), .raw (1)</t>
-  </si>
-  <si>
     <t>bitcoin-0.11.2</t>
   </si>
   <si>
-    <t>.h (249), .cpp (189), .png (123), .md (98), .ts (71), .cc (70), .py (63),  (46), .mk (37), .sh (16), .m4 (16), .ui (16), .svg (15), .pgp (13), .bmp (11), .json (9), .in (8), .txt (8), .patch (8), .c (8), .hex (8), .yml (7), .rc (5), .ico (5), .xpm (5), .conf (4), .am (3), .install (3), .1 (3), .include (3), .html (3), .ac (2), .bash-completion (2), .lintian-overrides (2), .pem (2), .qrc (2), .mm (2), .pro (1), .desktop (1), .protocol (1), .examples (1), .manpages (1), .5 (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .psd (1), .tiff (1), .plist (1), .strings (1), .guess (1), .sub (1), .pri (1), .xcf (1), .css (1), .proto (1), .icns (1), .java (1), .raw (1)</t>
-  </si>
-  <si>
     <t>bitcoin-0.12.0</t>
   </si>
   <si>
-    <t>.h (267), .cpp (204), .png (122), .md (105), .py (85), .ts (77), .cc (70),  (52), .json (50), .mk (39), .pgp (19), .m4 (17), .svg (17), .ui (16), .sh (15), .c (13), .in (10), .hex (10), .patch (9), .yml (8), .txt (7), .include (7), .xpm (5), .am (4), .conf (4), .rc (4), .ac (3), .install (3), .1 (3), .html (3), .bash-completion (2), .lintian-overrides (2), .plist (2), .pem (2), .ico (2), .bmp (2), .qrc (2), .mm (2), .pro (1), .desktop (1), .protocol (1), .examples (1), .manpages (1), .5 (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .psd (1), .tiff (1), .strings (1), .guess (1), .sub (1), .pri (1), .css (1), .proto (1), .icns (1), .java (1), .raw (1)</t>
-  </si>
-  <si>
     <t>bitcoin-0.12.1</t>
   </si>
   <si>
-    <t>.h (268), .cpp (206), .png (122), .md (105), .py (89), .ts (83), .cc (70),  (52), .json (50), .mk (39), .pgp (19), .m4 (17), .svg (17), .ui (16), .sh (15), .c (13), .in (10), .hex (10), .patch (9), .yml (8), .txt (7), .include (7), .xpm (5), .am (4), .conf (4), .rc (4), .ac (3), .install (3), .1 (3), .html (3), .bash-completion (2), .lintian-overrides (2), .plist (2), .pem (2), .ico (2), .bmp (2), .qrc (2), .mm (2), .pro (1), .desktop (1), .protocol (1), .examples (1), .manpages (1), .5 (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .psd (1), .tiff (1), .strings (1), .guess (1), .sub (1), .pri (1), .css (1), .proto (1), .icns (1), .java (1), .raw (1)</t>
-  </si>
-  <si>
     <t>bitcoin-0.13.0</t>
   </si>
   <si>
-    <t>.h (276), .cpp (215), .png (125), .md (113), .py (101), .ts (85), .cc (70), .json (54),  (52), .mk (42), .pgp (22), .m4 (18), .svg (18), .c (16), .ui (16), .sh (14), .hex (12), .in (11), .patch (10), .yml (8), .include (8), .txt (6), .bash-completion (5), .xpm (5), .am (4), .conf (4), .rc (4), .ac (3), .install (3), .1 (3), .ico (3), .html (3), .lintian-overrides (2), .plist (2), .pem (2), .bmp (2), .qrc (2), .mm (2), .pro (1), .desktop (1), .protocol (1), .examples (1), .manpages (1), .5 (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .fc (1), .if (1), .spec (1), .te (1), .guess (1), .sub (1), .pri (1), .css (1), .proto (1), .icns (1), .java (1)</t>
-  </si>
-  <si>
     <t>bitcoin-0.13.1</t>
   </si>
   <si>
-    <t>.h (276), .cpp (215), .png (125), .md (114), .py (106), .ts (86), .cc (70), .json (65),  (52), .mk (42), .pgp (22), .m4 (19), .svg (18), .c (16), .ui (16), .sh (14), .hex (12), .in (11), .patch (11), .yml (8), .include (8), .txt (6), .bash-completion (5), .xpm (5), .am (4), .conf (4), .rc (4), .ac (3), .install (3), .1 (3), .ico (3), .html (3), .lintian-overrides (2), .plist (2), .pem (2), .bmp (2), .qrc (2), .mm (2), .pro (1), .desktop (1), .protocol (1), .examples (1), .manpages (1), .5 (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .fc (1), .if (1), .spec (1), .te (1), .guess (1), .sub (1), .pri (1), .css (1), .proto (1), .icns (1), .java (1)</t>
-  </si>
-  <si>
     <t>bitcoin-0.13.2</t>
   </si>
   <si>
-    <t>.h (274), .cpp (214), .png (125), .md (116), .py (106), .ts (86), .cc (70), .json (65),  (51), .mk (42), .pgp (22), .m4 (20), .svg (18), .c (18), .ui (16), .sh (14), .hex (12), .in (11), .patch (11), .yml (8), .include (7), .txt (6), .bash-completion (5), .xpm (5), .am (4), .conf (4), .1 (4), .rc (4), .java (4), .ac (3), .install (3), .ico (3), .html (3), .sage (3), .lintian-overrides (2), .plist (2), .pem (2), .bmp (2), .qrc (2), .mm (2), .pro (1), .desktop (1), .protocol (1), .examples (1), .manpages (1), .5 (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .fc (1), .if (1), .spec (1), .te (1), .guess (1), .sub (1), .pri (1), .css (1), .proto (1), .icns (1), .s (1)</t>
-  </si>
-  <si>
     <t>bitcoin-0.14.0</t>
   </si>
   <si>
-    <t>.h (287), .cpp (233), .png (128), .md (119), .py (112), .ts (86), .json (77), .cc (72),  (50), .mk (41), .hex (25), .pgp (23), .svg (21), .m4 (20), .c (18), .sh (17), .ui (17), .in (10), .patch (10), .yml (9), .include (7), .am (5), .bash-completion (5), .txt (5), .xpm (5), .conf (4), .1 (4), .rc (4), .java (4), .ac (3), .install (3), .manpages (3), .ico (3), .html (3), .sage (3), .lintian-overrides (2), .plist (2), .pem (2), .bmp (2), .qrc (2), .mm (2), .pro (1), .desktop (1), .protocol (1), .examples (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .fc (1), .if (1), .spec (1), .te (1), .guess (1), .sub (1), .raw (1), .css (1), .proto (1), .icns (1), .s (1)</t>
-  </si>
-  <si>
     <t>bitcoin-0.14.1</t>
   </si>
   <si>
     <t>bitcoin-0.14.2</t>
   </si>
   <si>
-    <t>.h (287), .cpp (233), .png (128), .md (120), .py (112), .ts (86), .json (77), .cc (72),  (50), .mk (41), .hex (25), .pgp (23), .svg (21), .m4 (20), .c (18), .sh (17), .ui (17), .in (10), .patch (10), .yml (9), .include (7), .am (5), .bash-completion (5), .txt (5), .xpm (5), .conf (4), .1 (4), .rc (4), .java (4), .ac (3), .install (3), .manpages (3), .ico (3), .html (3), .sage (3), .lintian-overrides (2), .plist (2), .pem (2), .bmp (2), .qrc (2), .mm (2), .pro (1), .desktop (1), .protocol (1), .examples (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .fc (1), .if (1), .spec (1), .te (1), .guess (1), .sub (1), .raw (1), .css (1), .proto (1), .icns (1), .s (1)</t>
-  </si>
-  <si>
     <t>bitcoin-0.14.3</t>
   </si>
   <si>
-    <t>.h (287), .cpp (234), .png (128), .md (120), .py (112), .ts (86), .json (77), .cc (72),  (50), .mk (41), .hex (25), .pgp (23), .svg (21), .m4 (20), .c (18), .sh (17), .ui (17), .in (10), .patch (10), .yml (9), .include (7), .am (5), .bash-completion (5), .txt (5), .xpm (5), .conf (4), .1 (4), .rc (4), .java (4), .ac (3), .install (3), .manpages (3), .ico (3), .html (3), .sage (3), .lintian-overrides (2), .plist (2), .pem (2), .bmp (2), .qrc (2), .mm (2), .pro (1), .desktop (1), .protocol (1), .examples (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .fc (1), .if (1), .spec (1), .te (1), .guess (1), .sub (1), .raw (1), .css (1), .proto (1), .icns (1), .s (1)</t>
-  </si>
-  <si>
     <t>bitcoin-0.15.0</t>
   </si>
   <si>
-    <t>.h (297), .cpp (244), .png (129), .md (126), .py (120), .ts (101), .json (77), .cc (74),  (51), .mk (41), .hex (25), .pgp (23), .svg (21), .m4 (20), .sh (19), .c (17), .ui (17), .in (10), .patch (10), .yml (9), .include (7), .am (5), .bash-completion (5), .xpm (5), .conf (4), .1 (4), .rc (4), .java (4), .ac (3), .install (3), .manpages (3), .txt (3), .ico (3), .sage (3), .lintian-overrides (2), .plist (2), .pem (2), .bmp (2), .html (2), .qrc (2), .mm (2), .pro (1), .desktop (1), .protocol (1), .examples (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .fc (1), .if (1), .spec (1), .te (1), .cert (1), .guess (1), .sub (1), .raw (1), .proto (1), .icns (1), .s (1)</t>
-  </si>
-  <si>
     <t>bitcoin-0.15.0.1</t>
   </si>
   <si>
     <t>bitcoin-0.15.1</t>
   </si>
   <si>
-    <t>.h (296), .cpp (244), .png (129), .md (128), .py (123), .ts (101), .json (78), .cc (74),  (51), .mk (41), .hex (25), .pgp (23), .svg (21), .m4 (20), .sh (19), .c (17), .ui (17), .in (10), .patch (10), .yml (9), .include (7), .am (5), .bash-completion (5), .xpm (5), .conf (4), .1 (4), .rc (4), .java (4), .ac (3), .install (3), .manpages (3), .txt (3), .ico (3), .sage (3), .lintian-overrides (2), .plist (2), .pem (2), .bmp (2), .html (2), .qrc (2), .mm (2), .pro (1), .desktop (1), .protocol (1), .examples (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .fc (1), .if (1), .spec (1), .te (1), .cert (1), .guess (1), .sub (1), .raw (1), .proto (1), .icns (1), .s (1)</t>
-  </si>
-  <si>
     <t>bitcoin-0.15.2</t>
   </si>
   <si>
-    <t>.h (296), .cpp (244), .png (129), .md (128), .py (123), .ts (101), .json (78), .cc (74),  (51), .mk (41), .hex (25), .pgp (23), .svg (21), .m4 (20), .sh (19), .c (17), .ui (17), .patch (12), .in (10), .yml (9), .include (7), .am (5), .bash-completion (5), .xpm (5), .conf (4), .1 (4), .rc (4), .java (4), .ac (3), .install (3), .manpages (3), .txt (3), .ico (3), .sage (3), .lintian-overrides (2), .plist (2), .pem (2), .bmp (2), .html (2), .qrc (2), .mm (2), .pro (1), .desktop (1), .protocol (1), .examples (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .fc (1), .if (1), .spec (1), .te (1), .cert (1), .guess (1), .sub (1), .raw (1), .proto (1), .icns (1), .s (1)</t>
-  </si>
-  <si>
     <t>bitcoin-0.16.0</t>
   </si>
   <si>
-    <t>.h (302), .cpp (257), .py (133), .md (130), .ts (115), .png (96), .json (85), .cc (74),  (50), .mk (41), .pgp (26), .hex (25), .sh (23), .svg (21), .m4 (20), .c (17), .ui (17), .in (10), .yml (9), .patch (9), .include (7), .am (5), .bash-completion (5), .xpm (5), .conf (4), .1 (4), .rc (4), .java (4), .ac (3), .install (3), .manpages (3), .txt (3), .ico (3), .sage (3), .lintian-overrides (2), .plist (2), .bmp (2), .html (2), .qrc (2), .mm (2), .pro (1), .supp (1), .desktop (1), .protocol (1), .examples (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .fc (1), .if (1), .spec (1), .te (1), .cert (1), .guess (1), .sub (1), .raw (1), .proto (1), .icns (1), .s (1)</t>
-  </si>
-  <si>
     <t>bitcoin-0.16.1</t>
   </si>
   <si>
-    <t>.h (302), .cpp (258), .py (134), .md (130), .ts (114), .png (96), .json (85), .cc (74),  (50), .mk (41), .pgp (26), .hex (25), .sh (23), .svg (21), .m4 (20), .c (17), .ui (17), .patch (11), .in (10), .yml (9), .include (7), .am (5), .bash-completion (5), .xpm (5), .conf (4), .1 (4), .rc (4), .java (4), .ac (3), .install (3), .manpages (3), .txt (3), .ico (3), .sage (3), .lintian-overrides (2), .plist (2), .bmp (2), .html (2), .qrc (2), .mm (2), .pro (1), .supp (1), .desktop (1), .protocol (1), .examples (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .fc (1), .if (1), .spec (1), .te (1), .cert (1), .guess (1), .sub (1), .raw (1), .proto (1), .icns (1), .s (1)</t>
-  </si>
-  <si>
     <t>bitcoin-0.16.2</t>
   </si>
   <si>
@@ -197,67 +143,37 @@
     <t>bitcoin-0.17.0</t>
   </si>
   <si>
-    <t>.h (317), .cpp (282), .py (148), .md (136), .png (97), .json (87), .ts (86), .cc (74),  (44), .mk (40), .sh (32), .hex (25), .svg (22), .m4 (19), .c (17), .ui (17), .in (10), .yml (9), .patch (8), .include (7), .am (5), .xpm (5), .txt (4), .1 (4), .rc (4), .java (4), .ac (3), .bash-completion (3), .conf (3), .ico (3), .sage (3), .plist (2), .bmp (2), .html (2), .qrc (2), .mm (2), .pro (1), .supp (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .cert (1), .guess (1), .sub (1), .raw (1), .proto (1), .icns (1), .s (1)</t>
-  </si>
-  <si>
     <t>bitcoin-0.17.0.1</t>
   </si>
   <si>
     <t>bitcoin-0.17.1</t>
   </si>
   <si>
-    <t>.h (317), .cpp (282), .py (150), .md (136), .png (97), .json (87), .ts (86), .cc (74),  (44), .mk (40), .sh (32), .hex (25), .svg (22), .m4 (19), .c (17), .ui (17), .in (10), .yml (9), .patch (8), .include (7), .am (5), .xpm (5), .txt (4), .1 (4), .rc (4), .java (4), .ac (3), .bash-completion (3), .conf (3), .ico (3), .sage (3), .plist (2), .bmp (2), .html (2), .qrc (2), .mm (2), .pro (1), .supp (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .cert (1), .guess (1), .sub (1), .raw (1), .proto (1), .icns (1), .s (1)</t>
-  </si>
-  <si>
     <t>bitcoin-0.18.0</t>
   </si>
   <si>
-    <t>.h (339), .cpp (310), .py (165), .md (148), .png (97), .ts (93), .json (88), .cc (74),  (49), .sh (45), .mk (39), .hex (25), .svg (22), .m4 (19), .in (18), .c (17), .ui (17), .vcxproj (15), .yml (10), .patch (9), .include (7), .am (5), .txt (5), .1 (5), .xpm (5), .rc (5), .java (4), .ac (3), .bash-completion (3), .conf (3), .ico (3), .mm (3), .sage (3), .plist (2), .bmp (2), .html (2), .qrc (2), .sln (1), .targets (1), .pro (1), .supp (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .cert (1), .guess (1), .sub (1), .raw (1), .proto (1), .icns (1), .s (1)</t>
-  </si>
-  <si>
     <t>bitcoin-0.18.1</t>
   </si>
   <si>
-    <t>.h (339), .cpp (311), .py (166), .md (148), .ts (119), .png (97), .json (88), .cc (74),  (49), .sh (45), .mk (39), .hex (25), .svg (22), .m4 (19), .in (18), .c (17), .ui (17), .vcxproj (15), .yml (10), .patch (9), .include (7), .am (5), .txt (5), .1 (5), .xpm (5), .rc (5), .java (4), .ac (3), .bash-completion (3), .conf (3), .ico (3), .mm (3), .sage (3), .plist (2), .bmp (2), .html (2), .qrc (2), .sln (1), .targets (1), .pro (1), .supp (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .cert (1), .guess (1), .sub (1), .raw (1), .proto (1), .icns (1), .s (1)</t>
-  </si>
-  <si>
     <t>bitcoin-0.19.0.1</t>
   </si>
   <si>
-    <t>.h (365), .cpp (346), .py (174), .md (160), .json (88), .png (87), .ts (76), .cc (74), .sh (64),  (49), .mk (34), .hex (26), .svg (21), .in (19), .m4 (19), .c (18), .ui (18), .vcxproj (16), .yml (11), .patch (11), .include (8), .am (5), .txt (5), .1 (5), .xpm (5), .rc (5), .java (4), .ac (3), .bash-completion (3), .conf (3), .ico (3), .mm (3), .sage (3), .targets (2), .plist (2), .bmp (2), .html (2), .qrc (2), .yapf (1), .sln (1), .pro (1), .supp (1), .scm (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .cert (1), .guess (1), .sub (1), .raw (1), .proto (1), .icns (1), .s (1), .log (1), .dat (1)</t>
-  </si>
-  <si>
     <t>bitcoin-0.19.1</t>
   </si>
   <si>
-    <t>.h (365), .cpp (346), .py (174), .md (161), .json (90), .png (87), .cc (74), .ts (74), .sh (64),  (49), .mk (34), .hex (26), .svg (21), .in (19), .m4 (19), .c (18), .ui (18), .vcxproj (16), .yml (11), .patch (11), .include (8), .txt (6), .am (5), .1 (5), .xpm (5), .rc (5), .java (4), .ac (3), .bash-completion (3), .conf (3), .ico (3), .mm (3), .sage (3), .targets (2), .plist (2), .bmp (2), .html (2), .qrc (2), .yapf (1), .sln (1), .pro (1), .supp (1), .scm (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .cert (1), .guess (1), .sub (1), .raw (1), .proto (1), .icns (1), .s (1), .log (1), .dat (1)</t>
-  </si>
-  <si>
     <t>bitcoin-0.20.0</t>
   </si>
   <si>
-    <t>.cpp (414), .h (393), .py (190), .md (166), .json (91), .cc (89), .png (87), .ts (85), .sh (70),  (53), .mk (31), .hex (28), .in (22), .svg (21), .c (19), .m4 (18), .ui (18), .vcxproj (16), .yml (14), .patch (13), .include (11), .txt (9), .am (5), .1 (5), .xpm (5), .rc (5), .java (4), .ac (3), .bash-completion (3), .conf (3), .ico (3), .mm (3), .sage (3), .targets (2), .plist (2), .bmp (2), .raw (2), .cmake (2), .html (2), .qrc (2), .yapf (1), .sln (1), .pro (1), .supp (1), .scm (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .cert (1), .guess (1), .sub (1), .icns (1), .s (1), .log (1), .dat (1)</t>
-  </si>
-  <si>
     <t>bitcoin-0.20.1</t>
   </si>
   <si>
     <t>bitcoin-0.21.0</t>
   </si>
   <si>
-    <t>.cpp (467), .h (417), .py (209), .md (170), .json (92), .cc (89), .png (87), .ts (86), .sh (75),  (55), .mk (36), .hex (28), .patch (24), .in (22), .svg (21), .c (19), .ui (19), .m4 (18), .vcxproj (16), .yml (15), .include (13), .txt (8), .am (5), .1 (5), .xpm (5), .rc (5), .sage (4), .ac (3), .bash-completion (3), .conf (3), .ico (3), .mm (3), .targets (2), .plist (2), .bmp (2), .raw (2), .cmake (2), .html (2), .qrc (2), .yapf (1), .sln (1), .pro (1), .supp (1), .scm (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .cert (1), .guess (1), .sub (1), .icns (1), .s (1), .csv (1)</t>
-  </si>
-  <si>
     <t>bitcoin-0.21.1</t>
   </si>
   <si>
-    <t>.cpp (468), .h (418), .py (210), .md (171), .json (92), .cc (89), .png (87), .ts (85), .sh (75),  (55), .mk (36), .hex (28), .patch (24), .in (22), .svg (21), .m4 (19), .c (19), .ui (19), .vcxproj (16), .yml (15), .include (13), .txt (8), .am (5), .1 (5), .xpm (5), .rc (5), .sage (4), .ac (3), .bash-completion (3), .conf (3), .ico (3), .mm (3), .targets (2), .plist (2), .bmp (2), .raw (2), .cmake (2), .html (2), .qrc (2), .yapf (1), .sln (1), .pro (1), .supp (1), .scm (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .cert (1), .guess (1), .sub (1), .icns (1), .s (1), .csv (1)</t>
-  </si>
-  <si>
     <t>bitcoin-22.0</t>
-  </si>
-  <si>
-    <t>.cpp (516), .h (450), .py (233), .md (180), .png (93), .json (92), .cc (89), .ts (89), .sh (73),  (65), .mk (38), .hex (28), .patch (26), .in (23), .svg (21), .c (19), .ui (19), .vcxproj (17), .m4 (16), .yml (13), .include (13), .txt (8), .1 (6), .rc (6), .sage (6), .am (5), .xpm (5), .ac (3), .bash-completion (3), .bash (3), .conf (3), .ico (3), .mm (3), .targets (2), .pro (2), .bmp (2), .raw (2), .capnp (2), .html (2), .qrc (2), .yapf (1), .sln (1), .supp (1), .scm (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .plist (1), .cfg (1), .cert (1), .guess (1), .sub (1), .cmake (1), .xml (1), .gradle (1), .properties (1), .java (1), .xlf (1), .ttf (1), .icns (1), .Dockerfile (1), .s (1), .csv (1)</t>
   </si>
   <si>
     <t>Unit = Bytes</t>
@@ -306,112 +222,193 @@
     <t>.cpp (516), .h (450), .py (234), .md (181), .ts (97), .png (93), .json (92), .cc (89), .sh (73),  (65), .mk (38), .patch (28), .hex (28), .in (23), .svg (21), .c (19), .ui (19), .vcxproj (17), .m4 (16), .yml (13), .include (13), .txt (8), .1 (6), .rc (6), .sage (6), .am (5), .xpm (5), .ac (3), .bash-completion (3), .bash (3), .conf (3), .ico (3), .mm (3), .targets (2), .pro (2), .bmp (2), .raw (2), .capnp (2), .html (2), .qrc (2), .yapf (1), .sln (1), .supp (1), .scm (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .plist (1), .cfg (1), .cert (1), .guess (1), .sub (1), .cmake (1), .xml (1), .gradle (1), .properties (1), .java (1), .xlf (1), .ttf (1), .icns (1), .dockerfile (1), .s (1), .csv (1)</t>
   </si>
   <si>
-    <t>.cpp (516), .h (450), .py (234), .sh (73), .c (19), .java (1)</t>
-  </si>
-  <si>
     <t>bitcoin-23.0</t>
   </si>
   <si>
     <t>.cpp (559), .h (482), .py (257), .md (195), .png (98), .json (94), .ts (94), .cc (89), .sh (74),  (63), .mk (51), .patch (30), .hex (29), .in (24), .svg (20), .ui (19), .m4 (18), .vcxproj (17), .c (17), .include (15), .txt (9), .sage (9), .yml (7), .am (6), .1 (6), .rc (6), .xpm (5), .ac (4), .bash-completion (3), .bash (3), .conf (3), .bt (3), .ico (3), .mm (3), .targets (2), .pro (2), .bmp (2), .raw (2), .capnp (2), .html (2), .dockerfile (2), .qrc (2), .xml (2), .yapf (1), .sln (1), .supp (1), .scm (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .tiff (1), .cert (1), .guess (1), .sub (1), .cmake (1), .gradle (1), .properties (1), .java (1), .xlf (1), .ttf (1), .icns (1), .s (1), .csv (1)</t>
   </si>
   <si>
-    <t>.cpp (559), .h (482), .py (257), .sh (74), .c (17), .java (1)</t>
-  </si>
-  <si>
     <t>bitcoin-23.1</t>
   </si>
   <si>
     <t>.cpp (561), .h (482), .py (258), .md (196), .ts (99), .png (98), .json (94), .cc (89), .sh (74),  (67), .mk (51), .patch (29), .hex (29), .in (24), .svg (20), .m4 (19), .ui (19), .vcxproj (17), .c (17), .include (15), .txt (9), .sage (9), .yml (8), .am (6), .1 (6), .rc (6), .xpm (5), .ac (4), .bash-completion (3), .bash (3), .conf (3), .bt (3), .ico (3), .mm (3), .targets (2), .pro (2), .bmp (2), .raw (2), .capnp (2), .html (2), .dockerfile (2), .qrc (2), .xml (2), .yapf (1), .sln (1), .supp (1), .scm (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .plist (1), .cfg (1), .tiff (1), .cert (1), .guess (1), .sub (1), .cmake (1), .gradle (1), .properties (1), .java (1), .xlf (1), .ttf (1), .icns (1), .s (1), .csv (1)</t>
   </si>
   <si>
-    <t>.cpp (561), .h (482), .py (258), .sh (74), .c (17), .java (1)</t>
-  </si>
-  <si>
     <t>bitcoin-24.0.1</t>
   </si>
   <si>
     <t>.cpp (599), .h (507), .py (297), .md (198), .png (98), .ts (98), .json (94), .cc (89),  (66), .sh (50), .mk (50), .patch (35), .hex (29), .in (23), .c (22), .svg (20), .ui (19), .m4 (18), .vcxproj (16), .include (15), .sage (9), .txt (8), .yml (7), .1 (6), .rc (6), .am (5), .xpm (5), .ac (3), .bash-completion (3), .bash (3), .conf (3), .bt (3), .ico (3), .mm (3), .targets (2), .pro (2), .bmp (2), .raw (2), .capnp (2), .html (2), .dockerfile (2), .qrc (2), .xml (2), .yapf (1), .sln (1), .bat (1), .supp (1), .imp (1), .scm (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .plist (1), .cfg (1), .tiff (1), .cert (1), .guess (1), .sub (1), .cmake (1), .gradle (1), .properties (1), .java (1), .xlf (1), .ttf (1), .icns (1), .s (1), .csv (1)</t>
   </si>
   <si>
-    <t>.cpp (599), .h (507), .py (297), .sh (50), .c (22), .java (1)</t>
-  </si>
-  <si>
     <t>Code file extenension histogram</t>
   </si>
   <si>
-    <t>.h (233), .cpp (179), .py (41), .sh (16), .c (7), .java (1)</t>
-  </si>
-  <si>
-    <t>.h (233), .cpp (180), .py (43), .sh (16), .c (7), .java (1)</t>
-  </si>
-  <si>
-    <t>.h (233), .cpp (180), .py (45), .sh (16), .c (7), .java (1)</t>
-  </si>
-  <si>
-    <t>.h (249), .cpp (189), .py (61), .sh (16), .c (8), .java (1)</t>
-  </si>
-  <si>
-    <t>.h (249), .cpp (189), .py (63), .sh (16), .c (8), .java (1)</t>
-  </si>
-  <si>
-    <t>.h (267), .cpp (203), .py (85), .sh (15), .c (13), .java (1)</t>
-  </si>
-  <si>
-    <t>.h (268), .cpp (205), .py (89), .sh (15), .c (13), .java (1)</t>
-  </si>
-  <si>
-    <t>.h (276), .cpp (214), .py (101), .c (16), .sh (14), .java (1)</t>
-  </si>
-  <si>
-    <t>.h (276), .cpp (214), .py (106), .c (16), .sh (14), .java (1)</t>
-  </si>
-  <si>
-    <t>.h (274), .cpp (213), .py (106), .c (18), .sh (14), .java (4)</t>
-  </si>
-  <si>
-    <t>.h (287), .cpp (232), .py (112), .c (18), .sh (17), .java (4)</t>
-  </si>
-  <si>
-    <t>.h (287), .cpp (233), .py (112), .c (18), .sh (17), .java (4)</t>
-  </si>
-  <si>
-    <t>.h (297), .cpp (243), .py (120), .sh (19), .c (17), .java (4)</t>
-  </si>
-  <si>
-    <t>.h (296), .cpp (243), .py (123), .sh (19), .c (17), .java (4)</t>
-  </si>
-  <si>
-    <t>.h (302), .cpp (256), .py (133), .sh (23), .c (17), .java (4)</t>
-  </si>
-  <si>
-    <t>.h (302), .cpp (257), .py (134), .sh (23), .c (17), .java (4)</t>
-  </si>
-  <si>
-    <t>.h (317), .cpp (281), .py (148), .sh (32), .c (17), .java (4)</t>
-  </si>
-  <si>
-    <t>.h (317), .cpp (281), .py (150), .sh (32), .c (17), .java (4)</t>
-  </si>
-  <si>
-    <t>.h (339), .cpp (309), .py (165), .sh (45), .c (17), .java (4)</t>
-  </si>
-  <si>
-    <t>.h (339), .cpp (310), .py (166), .sh (45), .c (17), .java (4)</t>
-  </si>
-  <si>
-    <t>.h (365), .cpp (345), .py (174), .sh (64), .c (18), .java (4)</t>
-  </si>
-  <si>
-    <t>.h (390), .cpp (355), .py (190), .sh (70), .c (19), .java (4)</t>
-  </si>
-  <si>
-    <t>.cpp (466), .h (417), .py (209), .sh (75), .c (19)</t>
-  </si>
-  <si>
-    <t>.cpp (467), .h (418), .py (210), .sh (75), .c (19)</t>
-  </si>
-  <si>
-    <t>.cpp (515), .h (450), .py (233), .sh (73), .c (19), .java (1)</t>
+    <t>.h (233), .cpp (179), .png (126), .md (88), .ts (71), .cc (70),  (42), .py (41), .mk (39), .sh (16), .m4 (16), .ui (16), .pgp (11), .bmp (11), .json (11), .svg (9), .txt (8), .hex (8), .in (7), .c (7), .yml (6), .ico (6), .xpm (5), .conf (4), .rc (4), .am (3), .include (3), .html (3), .ac (2), .bash-completion (2), .install (2), .lintian-overrides (2), .1 (2), .pem (2), .qrc (2), .mm (2), .pro (1), .desktop (1), .protocol (1), .examples (1), .manpages (1), .5 (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .psd (1), .plist (1), .guess (1), .sub (1), .packages (1), .usage (1), .pri (1), .xcf (1), .css (1), .proto (1), .icns (1), .asm (1), .java (1), .raw (1)</t>
+  </si>
+  <si>
+    <t>.h (233), .cpp (179), .cc (70), .py (41), .mk (39), .sh (16), .c (7), .java (1)</t>
+  </si>
+  <si>
+    <t>.h (233), .cpp (180), .png (126), .md (89), .ts (71), .cc (70), .py (43),  (42), .mk (39), .sh (16), .m4 (16), .ui (16), .pgp (11), .bmp (11), .json (11), .svg (9), .txt (8), .hex (8), .in (7), .c (7), .yml (6), .ico (6), .xpm (5), .conf (4), .rc (4), .am (3), .include (3), .html (3), .ac (2), .bash-completion (2), .install (2), .lintian-overrides (2), .1 (2), .pem (2), .qrc (2), .mm (2), .pro (1), .desktop (1), .protocol (1), .examples (1), .manpages (1), .5 (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .psd (1), .plist (1), .guess (1), .sub (1), .packages (1), .usage (1), .pri (1), .xcf (1), .css (1), .proto (1), .icns (1), .asm (1), .java (1), .raw (1)</t>
+  </si>
+  <si>
+    <t>.h (233), .cpp (180), .cc (70), .py (43), .mk (39), .sh (16), .c (7), .java (1)</t>
+  </si>
+  <si>
+    <t>.h (233), .cpp (180), .png (126), .md (93), .ts (71), .cc (70), .py (45),  (42), .mk (39), .sh (16), .m4 (16), .ui (16), .pgp (11), .bmp (11), .json (11), .svg (9), .txt (8), .hex (8), .in (7), .c (7), .yml (6), .ico (6), .xpm (5), .conf (4), .rc (4), .am (3), .install (3), .include (3), .html (3), .ac (2), .bash-completion (2), .lintian-overrides (2), .1 (2), .pem (2), .qrc (2), .mm (2), .pro (1), .desktop (1), .protocol (1), .examples (1), .manpages (1), .5 (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .psd (1), .plist (1), .guess (1), .sub (1), .packages (1), .usage (1), .pri (1), .xcf (1), .css (1), .proto (1), .icns (1), .asm (1), .java (1), .raw (1)</t>
+  </si>
+  <si>
+    <t>.h (233), .cpp (180), .cc (70), .py (45), .mk (39), .sh (16), .c (7), .java (1)</t>
+  </si>
+  <si>
+    <t>.h (249), .cpp (189), .png (123), .md (96), .ts (71), .cc (70), .py (61),  (42), .mk (37), .sh (16), .ui (16), .m4 (15), .svg (15), .pgp (13), .bmp (11), .json (9), .in (8), .txt (8), .c (8), .hex (8), .yml (7), .rc (5), .ico (5), .xpm (5), .conf (4), .am (3), .1 (3), .include (3), .html (3), .ac (2), .bash-completion (2), .install (2), .lintian-overrides (2), .pem (2), .qrc (2), .mm (2), .pro (1), .desktop (1), .protocol (1), .examples (1), .manpages (1), .5 (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .psd (1), .tiff (1), .plist (1), .strings (1), .guess (1), .sub (1), .pri (1), .xcf (1), .css (1), .proto (1), .icns (1), .java (1), .raw (1)</t>
+  </si>
+  <si>
+    <t>.h (249), .cpp (189), .cc (70), .py (61), .mk (37), .sh (16), .c (8), .java (1)</t>
+  </si>
+  <si>
+    <t>.h (249), .cpp (189), .png (123), .md (98), .ts (71), .cc (70), .py (63),  (42), .mk (37), .sh (16), .ui (16), .m4 (15), .svg (15), .pgp (13), .bmp (11), .json (9), .in (8), .txt (8), .c (8), .hex (8), .yml (7), .rc (5), .ico (5), .xpm (5), .conf (4), .am (3), .install (3), .1 (3), .include (3), .html (3), .ac (2), .bash-completion (2), .lintian-overrides (2), .pem (2), .qrc (2), .mm (2), .pro (1), .desktop (1), .protocol (1), .examples (1), .manpages (1), .5 (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .psd (1), .tiff (1), .plist (1), .strings (1), .guess (1), .sub (1), .pri (1), .xcf (1), .css (1), .proto (1), .icns (1), .java (1), .raw (1)</t>
+  </si>
+  <si>
+    <t>.h (249), .cpp (189), .cc (70), .py (63), .mk (37), .sh (16), .c (8), .java (1)</t>
+  </si>
+  <si>
+    <t>.h (267), .cpp (203), .png (122), .md (105), .py (85), .ts (77), .cc (70), .json (50),  (48), .mk (39), .pgp (19), .svg (17), .ui (16), .sh (15), .m4 (15), .c (13), .in (10), .hex (10), .yml (8), .txt (7), .include (7), .xpm (5), .am (4), .conf (4), .rc (4), .ac (3), .install (3), .1 (3), .html (3), .bash-completion (2), .lintian-overrides (2), .plist (2), .pem (2), .ico (2), .bmp (2), .qrc (2), .mm (2), .pro (1), .desktop (1), .protocol (1), .examples (1), .manpages (1), .5 (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .psd (1), .tiff (1), .strings (1), .guess (1), .sub (1), .pri (1), .css (1), .proto (1), .icns (1), .java (1), .raw (1)</t>
+  </si>
+  <si>
+    <t>.h (267), .cpp (203), .py (85), .cc (70), .mk (39), .sh (15), .c (13), .java (1)</t>
+  </si>
+  <si>
+    <t>.h (268), .cpp (205), .png (122), .md (105), .py (89), .ts (83), .cc (70), .json (50),  (48), .mk (39), .pgp (19), .svg (17), .ui (16), .sh (15), .m4 (15), .c (13), .in (10), .hex (10), .yml (8), .txt (7), .include (7), .xpm (5), .am (4), .conf (4), .rc (4), .ac (3), .install (3), .1 (3), .html (3), .bash-completion (2), .lintian-overrides (2), .plist (2), .pem (2), .ico (2), .bmp (2), .qrc (2), .mm (2), .pro (1), .desktop (1), .protocol (1), .examples (1), .manpages (1), .5 (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .psd (1), .tiff (1), .strings (1), .guess (1), .sub (1), .pri (1), .css (1), .proto (1), .icns (1), .java (1), .raw (1)</t>
+  </si>
+  <si>
+    <t>.h (268), .cpp (205), .py (89), .cc (70), .mk (39), .sh (15), .c (13), .java (1)</t>
+  </si>
+  <si>
+    <t>.h (276), .cpp (214), .png (125), .md (113), .py (101), .ts (85), .cc (70), .json (54),  (48), .mk (42), .pgp (22), .svg (18), .m4 (16), .c (16), .ui (16), .sh (14), .hex (12), .in (11), .yml (8), .include (8), .txt (6), .bash-completion (5), .xpm (5), .am (4), .conf (4), .rc (4), .ac (3), .install (3), .1 (3), .ico (3), .html (3), .lintian-overrides (2), .plist (2), .pem (2), .bmp (2), .qrc (2), .mm (2), .pro (1), .desktop (1), .protocol (1), .examples (1), .manpages (1), .5 (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .fc (1), .if (1), .spec (1), .te (1), .guess (1), .sub (1), .pri (1), .css (1), .proto (1), .icns (1), .java (1)</t>
+  </si>
+  <si>
+    <t>.h (276), .cpp (214), .py (101), .cc (70), .mk (42), .c (16), .sh (14), .java (1)</t>
+  </si>
+  <si>
+    <t>.h (276), .cpp (214), .png (125), .md (114), .py (106), .ts (86), .cc (70), .json (65),  (48), .mk (42), .pgp (22), .svg (18), .m4 (17), .c (16), .ui (16), .sh (14), .hex (12), .in (11), .yml (8), .include (8), .txt (6), .bash-completion (5), .xpm (5), .am (4), .conf (4), .rc (4), .ac (3), .install (3), .1 (3), .ico (3), .html (3), .lintian-overrides (2), .plist (2), .pem (2), .bmp (2), .qrc (2), .mm (2), .pro (1), .desktop (1), .protocol (1), .examples (1), .manpages (1), .5 (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .fc (1), .if (1), .spec (1), .te (1), .guess (1), .sub (1), .pri (1), .css (1), .proto (1), .icns (1), .java (1)</t>
+  </si>
+  <si>
+    <t>.h (276), .cpp (214), .py (106), .cc (70), .mk (42), .c (16), .sh (14), .java (1)</t>
+  </si>
+  <si>
+    <t>.h (274), .cpp (213), .png (125), .md (116), .py (106), .ts (86), .cc (70), .json (65),  (47), .mk (42), .pgp (22), .m4 (20), .svg (18), .c (18), .ui (16), .sh (14), .hex (12), .in (11), .yml (8), .include (7), .txt (6), .bash-completion (5), .xpm (5), .am (4), .conf (4), .1 (4), .rc (4), .java (4), .ac (3), .install (3), .ico (3), .html (3), .sage (3), .lintian-overrides (2), .plist (2), .pem (2), .bmp (2), .qrc (2), .mm (2), .pro (1), .desktop (1), .protocol (1), .examples (1), .manpages (1), .5 (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .fc (1), .if (1), .spec (1), .te (1), .guess (1), .sub (1), .pri (1), .css (1), .proto (1), .icns (1), .s (1)</t>
+  </si>
+  <si>
+    <t>.h (274), .cpp (213), .py (106), .cc (70), .mk (42), .c (18), .sh (14), .java (4)</t>
+  </si>
+  <si>
+    <t>.h (287), .cpp (232), .png (128), .md (119), .py (112), .ts (86), .json (77), .cc (72),  (46), .mk (41), .hex (25), .pgp (23), .svg (21), .m4 (20), .c (18), .sh (17), .ui (17), .in (10), .yml (9), .include (7), .am (5), .bash-completion (5), .txt (5), .xpm (5), .conf (4), .1 (4), .rc (4), .java (4), .ac (3), .install (3), .manpages (3), .ico (3), .html (3), .sage (3), .lintian-overrides (2), .plist (2), .pem (2), .bmp (2), .qrc (2), .mm (2), .pro (1), .desktop (1), .protocol (1), .examples (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .fc (1), .if (1), .spec (1), .te (1), .guess (1), .sub (1), .raw (1), .css (1), .proto (1), .icns (1), .s (1)</t>
+  </si>
+  <si>
+    <t>.h (287), .cpp (232), .py (112), .cc (72), .mk (41), .c (18), .sh (17), .java (4)</t>
+  </si>
+  <si>
+    <t>.h (287), .cpp (232), .png (128), .md (120), .py (112), .ts (86), .json (77), .cc (72),  (46), .mk (41), .hex (25), .pgp (23), .svg (21), .m4 (20), .c (18), .sh (17), .ui (17), .in (10), .yml (9), .include (7), .am (5), .bash-completion (5), .txt (5), .xpm (5), .conf (4), .1 (4), .rc (4), .java (4), .ac (3), .install (3), .manpages (3), .ico (3), .html (3), .sage (3), .lintian-overrides (2), .plist (2), .pem (2), .bmp (2), .qrc (2), .mm (2), .pro (1), .desktop (1), .protocol (1), .examples (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .fc (1), .if (1), .spec (1), .te (1), .guess (1), .sub (1), .raw (1), .css (1), .proto (1), .icns (1), .s (1)</t>
+  </si>
+  <si>
+    <t>.h (287), .cpp (233), .png (128), .md (120), .py (112), .ts (86), .json (77), .cc (72),  (46), .mk (41), .hex (25), .pgp (23), .svg (21), .m4 (20), .c (18), .sh (17), .ui (17), .in (10), .yml (9), .include (7), .am (5), .bash-completion (5), .txt (5), .xpm (5), .conf (4), .1 (4), .rc (4), .java (4), .ac (3), .install (3), .manpages (3), .ico (3), .html (3), .sage (3), .lintian-overrides (2), .plist (2), .pem (2), .bmp (2), .qrc (2), .mm (2), .pro (1), .desktop (1), .protocol (1), .examples (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .fc (1), .if (1), .spec (1), .te (1), .guess (1), .sub (1), .raw (1), .css (1), .proto (1), .icns (1), .s (1)</t>
+  </si>
+  <si>
+    <t>.h (287), .cpp (233), .py (112), .cc (72), .mk (41), .c (18), .sh (17), .java (4)</t>
+  </si>
+  <si>
+    <t>.h (297), .cpp (243), .png (129), .md (126), .py (120), .ts (101), .json (77), .cc (74),  (47), .mk (41), .hex (25), .pgp (23), .svg (21), .m4 (20), .sh (19), .c (17), .ui (17), .in (10), .yml (9), .include (7), .am (5), .bash-completion (5), .xpm (5), .conf (4), .1 (4), .rc (4), .java (4), .ac (3), .install (3), .manpages (3), .txt (3), .ico (3), .sage (3), .lintian-overrides (2), .plist (2), .pem (2), .bmp (2), .html (2), .qrc (2), .mm (2), .pro (1), .desktop (1), .protocol (1), .examples (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .fc (1), .if (1), .spec (1), .te (1), .cert (1), .guess (1), .sub (1), .raw (1), .proto (1), .icns (1), .s (1)</t>
+  </si>
+  <si>
+    <t>.h (297), .cpp (243), .py (120), .cc (74), .mk (41), .sh (19), .c (17), .java (4)</t>
+  </si>
+  <si>
+    <t>.h (296), .cpp (243), .png (129), .md (128), .py (123), .ts (101), .json (78), .cc (74),  (47), .mk (41), .hex (25), .pgp (23), .svg (21), .m4 (20), .sh (19), .c (17), .ui (17), .in (10), .yml (9), .include (7), .am (5), .bash-completion (5), .xpm (5), .conf (4), .1 (4), .rc (4), .java (4), .ac (3), .install (3), .manpages (3), .txt (3), .ico (3), .sage (3), .lintian-overrides (2), .plist (2), .pem (2), .bmp (2), .html (2), .qrc (2), .mm (2), .pro (1), .desktop (1), .protocol (1), .examples (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .fc (1), .if (1), .spec (1), .te (1), .cert (1), .guess (1), .sub (1), .raw (1), .proto (1), .icns (1), .s (1)</t>
+  </si>
+  <si>
+    <t>.h (296), .cpp (243), .py (123), .cc (74), .mk (41), .sh (19), .c (17), .java (4)</t>
+  </si>
+  <si>
+    <t>.h (302), .cpp (256), .py (133), .md (130), .ts (115), .png (96), .json (85), .cc (74),  (46), .mk (41), .pgp (26), .hex (25), .sh (23), .svg (21), .m4 (20), .c (17), .ui (17), .in (10), .yml (9), .include (7), .am (5), .bash-completion (5), .xpm (5), .conf (4), .1 (4), .rc (4), .java (4), .ac (3), .install (3), .manpages (3), .txt (3), .ico (3), .sage (3), .lintian-overrides (2), .plist (2), .bmp (2), .html (2), .qrc (2), .mm (2), .pro (1), .supp (1), .desktop (1), .protocol (1), .examples (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .fc (1), .if (1), .spec (1), .te (1), .cert (1), .guess (1), .sub (1), .raw (1), .proto (1), .icns (1), .s (1)</t>
+  </si>
+  <si>
+    <t>.h (302), .cpp (256), .py (133), .cc (74), .mk (41), .sh (23), .c (17), .java (4)</t>
+  </si>
+  <si>
+    <t>.h (302), .cpp (257), .py (134), .md (130), .ts (114), .png (96), .json (85), .cc (74),  (46), .mk (41), .pgp (26), .hex (25), .sh (23), .svg (21), .m4 (20), .c (17), .ui (17), .in (10), .yml (9), .include (7), .am (5), .bash-completion (5), .xpm (5), .conf (4), .1 (4), .rc (4), .java (4), .ac (3), .install (3), .manpages (3), .txt (3), .ico (3), .sage (3), .lintian-overrides (2), .plist (2), .bmp (2), .html (2), .qrc (2), .mm (2), .pro (1), .supp (1), .desktop (1), .protocol (1), .examples (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .fc (1), .if (1), .spec (1), .te (1), .cert (1), .guess (1), .sub (1), .raw (1), .proto (1), .icns (1), .s (1)</t>
+  </si>
+  <si>
+    <t>.h (302), .cpp (257), .py (134), .cc (74), .mk (41), .sh (23), .c (17), .java (4)</t>
+  </si>
+  <si>
+    <t>.h (317), .cpp (281), .py (148), .md (136), .png (97), .json (87), .ts (86), .cc (74),  (40), .mk (40), .sh (32), .hex (25), .svg (22), .m4 (19), .c (17), .ui (17), .in (10), .yml (9), .include (7), .am (5), .xpm (5), .txt (4), .1 (4), .rc (4), .java (4), .ac (3), .bash-completion (3), .conf (3), .ico (3), .sage (3), .plist (2), .bmp (2), .html (2), .qrc (2), .mm (2), .pro (1), .supp (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .cert (1), .guess (1), .sub (1), .raw (1), .proto (1), .icns (1), .s (1)</t>
+  </si>
+  <si>
+    <t>.h (317), .cpp (281), .py (148), .cc (74), .mk (40), .sh (32), .c (17), .java (4)</t>
+  </si>
+  <si>
+    <t>.h (317), .cpp (281), .py (150), .md (136), .png (97), .json (87), .ts (86), .cc (74),  (40), .mk (40), .sh (32), .hex (25), .svg (22), .m4 (19), .c (17), .ui (17), .in (10), .yml (9), .include (7), .am (5), .xpm (5), .txt (4), .1 (4), .rc (4), .java (4), .ac (3), .bash-completion (3), .conf (3), .ico (3), .sage (3), .plist (2), .bmp (2), .html (2), .qrc (2), .mm (2), .pro (1), .supp (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .cert (1), .guess (1), .sub (1), .raw (1), .proto (1), .icns (1), .s (1)</t>
+  </si>
+  <si>
+    <t>.h (317), .cpp (281), .py (150), .cc (74), .mk (40), .sh (32), .c (17), .java (4)</t>
+  </si>
+  <si>
+    <t>.h (339), .cpp (309), .py (165), .md (148), .png (97), .ts (93), .json (88), .cc (74),  (45), .sh (45), .mk (39), .hex (25), .svg (22), .m4 (19), .in (18), .c (17), .ui (17), .yml (10), .include (7), .am (5), .txt (5), .1 (5), .xpm (5), .rc (5), .java (4), .ac (3), .bash-completion (3), .conf (3), .ico (3), .mm (3), .sage (3), .bmp (2), .html (2), .qrc (2), .sln (1), .targets (1), .pro (1), .supp (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .cert (1), .guess (1), .sub (1), .raw (1), .proto (1), .icns (1), .s (1)</t>
+  </si>
+  <si>
+    <t>.h (339), .cpp (309), .py (165), .cc (74), .sh (45), .mk (39), .c (17), .java (4)</t>
+  </si>
+  <si>
+    <t>.h (339), .cpp (310), .py (166), .md (148), .ts (119), .png (97), .json (88), .cc (74),  (45), .sh (45), .mk (39), .hex (25), .svg (22), .m4 (19), .in (18), .c (17), .ui (17), .yml (10), .include (7), .am (5), .txt (5), .1 (5), .xpm (5), .rc (5), .java (4), .ac (3), .bash-completion (3), .conf (3), .ico (3), .mm (3), .sage (3), .bmp (2), .html (2), .qrc (2), .sln (1), .targets (1), .pro (1), .supp (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .cert (1), .guess (1), .sub (1), .raw (1), .proto (1), .icns (1), .s (1)</t>
+  </si>
+  <si>
+    <t>.h (339), .cpp (310), .py (166), .cc (74), .sh (45), .mk (39), .c (17), .java (4)</t>
+  </si>
+  <si>
+    <t>.h (365), .cpp (345), .py (174), .md (160), .json (88), .png (87), .ts (76), .cc (74), .sh (64),  (46), .mk (34), .hex (26), .svg (21), .in (19), .m4 (19), .c (18), .ui (18), .yml (11), .patch (11), .include (8), .am (5), .txt (5), .1 (5), .xpm (5), .rc (5), .java (4), .ac (3), .bash-completion (3), .conf (3), .ico (3), .mm (3), .sage (3), .targets (2), .bmp (2), .html (2), .qrc (2), .yapf (1), .sln (1), .pro (1), .supp (1), .scm (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .cert (1), .guess (1), .sub (1), .raw (1), .proto (1), .icns (1), .s (1)</t>
+  </si>
+  <si>
+    <t>.h (365), .cpp (345), .py (174), .cc (74), .sh (64), .mk (34), .c (18), .java (4)</t>
+  </si>
+  <si>
+    <t>.h (365), .cpp (345), .py (174), .md (161), .json (90), .png (87), .cc (74), .ts (74), .sh (64),  (46), .mk (34), .hex (26), .svg (21), .in (19), .m4 (19), .c (18), .ui (18), .yml (11), .patch (11), .include (8), .txt (6), .am (5), .1 (5), .xpm (5), .rc (5), .java (4), .ac (3), .bash-completion (3), .conf (3), .ico (3), .mm (3), .sage (3), .targets (2), .bmp (2), .html (2), .qrc (2), .yapf (1), .sln (1), .pro (1), .supp (1), .scm (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .cert (1), .guess (1), .sub (1), .raw (1), .proto (1), .icns (1), .s (1)</t>
+  </si>
+  <si>
+    <t>.h (390), .cpp (355), .py (190), .md (166), .json (91), .cc (89), .png (87), .ts (85), .sh (70),  (50), .mk (31), .hex (28), .in (22), .svg (21), .c (19), .m4 (18), .ui (18), .vcxproj (16), .yml (14), .patch (13), .include (11), .txt (9), .am (5), .1 (5), .xpm (5), .rc (5), .java (4), .ac (3), .bash-completion (3), .conf (3), .ico (3), .mm (3), .sage (3), .targets (2), .bmp (2), .raw (2), .cmake (2), .html (2), .qrc (2), .yapf (1), .sln (1), .pro (1), .supp (1), .scm (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .cert (1), .guess (1), .sub (1), .icns (1), .s (1)</t>
+  </si>
+  <si>
+    <t>.h (390), .cpp (355), .py (190), .cc (89), .sh (70), .mk (31), .c (19), .java (4)</t>
+  </si>
+  <si>
+    <t>.cpp (466), .h (417), .py (209), .md (170), .json (92), .cc (89), .png (87), .ts (86), .sh (75),  (52), .mk (36), .hex (28), .patch (24), .in (22), .svg (21), .c (19), .ui (19), .m4 (18), .vcxproj (16), .yml (15), .include (13), .txt (8), .am (5), .1 (5), .xpm (5), .rc (5), .sage (4), .ac (3), .bash-completion (3), .conf (3), .ico (3), .mm (3), .targets (2), .bmp (2), .raw (2), .cmake (2), .html (2), .qrc (2), .yapf (1), .sln (1), .pro (1), .supp (1), .scm (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .cert (1), .guess (1), .sub (1), .icns (1), .s (1), .csv (1)</t>
+  </si>
+  <si>
+    <t>.cpp (466), .h (417), .py (209), .cc (89), .sh (75), .mk (36), .c (19)</t>
+  </si>
+  <si>
+    <t>.cpp (467), .h (418), .py (210), .md (171), .json (92), .cc (89), .png (87), .ts (85), .sh (75),  (52), .mk (36), .hex (28), .patch (24), .in (22), .svg (21), .m4 (19), .c (19), .ui (19), .vcxproj (16), .yml (15), .include (13), .txt (8), .am (5), .1 (5), .xpm (5), .rc (5), .sage (4), .ac (3), .bash-completion (3), .conf (3), .ico (3), .mm (3), .targets (2), .bmp (2), .raw (2), .cmake (2), .html (2), .qrc (2), .yapf (1), .sln (1), .pro (1), .supp (1), .scm (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .cert (1), .guess (1), .sub (1), .icns (1), .s (1), .csv (1)</t>
+  </si>
+  <si>
+    <t>.cpp (467), .h (418), .py (210), .cc (89), .sh (75), .mk (36), .c (19)</t>
+  </si>
+  <si>
+    <t>.cpp (515), .h (450), .py (233), .md (180), .png (93), .json (92), .cc (89), .ts (89), .sh (73),  (62), .mk (38), .hex (28), .in (23), .svg (21), .c (19), .ui (19), .vcxproj (17), .patch (17), .m4 (16), .yml (13), .include (13), .txt (8), .1 (6), .rc (6), .sage (6), .am (5), .xpm (5), .ac (3), .bash-completion (3), .bash (3), .conf (3), .ico (3), .mm (3), .targets (2), .pro (2), .bmp (2), .raw (2), .capnp (2), .html (2), .qrc (2), .yapf (1), .sln (1), .supp (1), .scm (1), .init (1), .openrc (1), .openrcconf (1), .service (1), .cfg (1), .cert (1), .guess (1), .sub (1), .cmake (1), .xml (1), .gradle (1), .properties (1), .java (1), .xlf (1), .ttf (1), .icns (1), .dockerfile (1), .s (1), .csv (1)</t>
+  </si>
+  <si>
+    <t>.cpp (515), .h (450), .py (233), .cc (89), .sh (73), .mk (38), .c (19), .java (1)</t>
+  </si>
+  <si>
+    <t>.cpp (516), .h (450), .py (234), .cc (89), .sh (73), .mk (38), .c (19), .java (1)</t>
+  </si>
+  <si>
+    <t>.cpp (559), .h (482), .py (257), .cc (89), .sh (74), .mk (51), .c (17), .java (1)</t>
+  </si>
+  <si>
+    <t>.cpp (561), .h (482), .py (258), .cc (89), .sh (74), .mk (51), .c (17), .java (1)</t>
+  </si>
+  <si>
+    <t>.cpp (599), .h (507), .py (297), .cc (89), .sh (50), .mk (50), .c (22), .java (1)</t>
   </si>
 </sst>
 </file>
@@ -1321,9 +1318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:V1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1346,7 +1341,7 @@
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1355,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1379,7 +1374,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
@@ -1397,7 +1392,7 @@
         <v>12</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>13</v>
@@ -1409,7 +1404,7 @@
         <v>14</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -1432,57 +1427,57 @@
         <v>3</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U2" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="8">
         <v>1087</v>
@@ -1542,15 +1537,15 @@
         <v>3</v>
       </c>
       <c r="U3" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="V3" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="8">
         <v>1087</v>
@@ -1610,15 +1605,15 @@
         <v>3</v>
       </c>
       <c r="U4" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="V4" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="8">
         <v>1087</v>
@@ -1678,15 +1673,15 @@
         <v>3</v>
       </c>
       <c r="U5" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="V5" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="8">
         <v>1094</v>
@@ -1746,15 +1741,15 @@
         <v>3</v>
       </c>
       <c r="U6" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" s="8">
         <v>1141</v>
@@ -1814,15 +1809,15 @@
         <v>3</v>
       </c>
       <c r="U7" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="V7" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B8" s="8">
         <v>1146</v>
@@ -1882,15 +1877,15 @@
         <v>3</v>
       </c>
       <c r="U8" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="V8" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B9" s="8">
         <v>1270</v>
@@ -1950,15 +1945,15 @@
         <v>3</v>
       </c>
       <c r="U9" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="V9" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B10" s="8">
         <v>1283</v>
@@ -2018,15 +2013,15 @@
         <v>3</v>
       </c>
       <c r="U10" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="V10" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B11" s="8">
         <v>1346</v>
@@ -2086,15 +2081,15 @@
         <v>3</v>
       </c>
       <c r="U11" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="V11" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B12" s="8">
         <v>1365</v>
@@ -2154,15 +2149,15 @@
         <v>3</v>
       </c>
       <c r="U12" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="V12" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B13" s="8">
         <v>1375</v>
@@ -2222,15 +2217,15 @@
         <v>3</v>
       </c>
       <c r="U13" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="V13" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B14" s="8">
         <v>1453</v>
@@ -2290,15 +2285,15 @@
         <v>3</v>
       </c>
       <c r="U14" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="V14" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B15" s="8">
         <v>1453</v>
@@ -2358,15 +2353,15 @@
         <v>3</v>
       </c>
       <c r="U15" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="V15" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B16" s="8">
         <v>1454</v>
@@ -2426,15 +2421,15 @@
         <v>3</v>
       </c>
       <c r="U16" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="V16" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B17" s="8">
         <v>1455</v>
@@ -2494,15 +2489,15 @@
         <v>3</v>
       </c>
       <c r="U17" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="V17" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B18" s="8">
         <v>1506</v>
@@ -2562,15 +2557,15 @@
         <v>3</v>
       </c>
       <c r="U18" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="V18" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B19" s="8">
         <v>1506</v>
@@ -2630,15 +2625,15 @@
         <v>3</v>
       </c>
       <c r="U19" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="V19" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B20" s="8">
         <v>1511</v>
@@ -2698,15 +2693,15 @@
         <v>3</v>
       </c>
       <c r="U20" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="V20" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B21" s="8">
         <v>1511</v>
@@ -2766,15 +2761,15 @@
         <v>3</v>
       </c>
       <c r="U21" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="V21" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B22" s="8">
         <v>1535</v>
@@ -2834,15 +2829,15 @@
         <v>3</v>
       </c>
       <c r="U22" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="V22" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B23" s="8">
         <v>1536</v>
@@ -2902,15 +2897,15 @@
         <v>3</v>
       </c>
       <c r="U23" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="V23" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B24" s="8">
         <v>1536</v>
@@ -2970,15 +2965,15 @@
         <v>3</v>
       </c>
       <c r="U24" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="V24" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B25" s="8">
         <v>1536</v>
@@ -3038,15 +3033,15 @@
         <v>3</v>
       </c>
       <c r="U25" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="V25" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B26" s="8">
         <v>1529</v>
@@ -3106,15 +3101,15 @@
         <v>3</v>
       </c>
       <c r="U26" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="V26" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B27" s="8">
         <v>1529</v>
@@ -3174,15 +3169,15 @@
         <v>3</v>
       </c>
       <c r="U27" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="V27" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B28" s="8">
         <v>1531</v>
@@ -3242,15 +3237,15 @@
         <v>3</v>
       </c>
       <c r="U28" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="V28" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B29" s="8">
         <v>1646</v>
@@ -3310,15 +3305,15 @@
         <v>3</v>
       </c>
       <c r="U29" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="V29" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B30" s="8">
         <v>1674</v>
@@ -3378,15 +3373,15 @@
         <v>3</v>
       </c>
       <c r="U30" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="V30" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B31" s="8">
         <v>1736</v>
@@ -3446,15 +3441,15 @@
         <v>3</v>
       </c>
       <c r="U31" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="V31" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B32" s="8">
         <v>1738</v>
@@ -3514,15 +3509,15 @@
         <v>3</v>
       </c>
       <c r="U32" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="V32" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B33" s="8">
         <v>1862</v>
@@ -3582,15 +3577,15 @@
         <v>3</v>
       </c>
       <c r="U33" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="V33" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="B34" s="8">
         <v>1862</v>
@@ -3650,15 +3645,15 @@
         <v>3</v>
       </c>
       <c r="U34" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="V34" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B35" s="8">
         <v>2049</v>
@@ -3718,15 +3713,15 @@
         <v>3</v>
       </c>
       <c r="U35" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="V35" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B36" s="8">
         <v>2053</v>
@@ -3786,15 +3781,15 @@
         <v>3</v>
       </c>
       <c r="U36" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="V36" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B37" s="8">
         <v>2191</v>
@@ -3854,15 +3849,15 @@
         <v>3</v>
       </c>
       <c r="U37" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="V37" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="B38" s="8">
         <v>2217</v>
@@ -3922,15 +3917,15 @@
         <v>3</v>
       </c>
       <c r="U38" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="V38" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="B39" s="8">
         <v>2355</v>
@@ -3990,15 +3985,15 @@
         <v>3</v>
       </c>
       <c r="U39" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="V39" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="B40" s="8">
         <v>2370</v>
@@ -4058,15 +4053,15 @@
         <v>3</v>
       </c>
       <c r="U40" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="V40" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="B41" s="8">
         <v>2453</v>
@@ -4126,24 +4121,24 @@
         <v>3</v>
       </c>
       <c r="U41" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="V41" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="G43" s="11" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
@@ -4151,7 +4146,7 @@
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
       <c r="N43" s="12" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
@@ -4161,7 +4156,7 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -4182,7 +4177,7 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -4203,7 +4198,7 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -4224,7 +4219,7 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -4257,9 +4252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F98823F-F407-46D8-AA59-6586EBBE7321}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
+    <sheetView zoomScale="117" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4270,13 +4263,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4284,439 +4277,439 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
